--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1552419.306965973</v>
+        <v>-1555280.120758264</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,73 +656,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>143.5013688276108</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>82.17026793013261</v>
-      </c>
-      <c r="I2" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>34.80229802829678</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>114.0849972206306</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>102.8511758218329</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.06906423822968</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6303734234754</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D5" t="n">
-        <v>225.403139763615</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>111.225436316966</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>39.57475938037123</v>
+        <v>47.32891336229449</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>216.820543952901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.5176918809205</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>93.69312609777488</v>
       </c>
       <c r="G8" t="n">
-        <v>211.6844936373141</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493722</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4381829241309</v>
+        <v>44.00401502694741</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696363</v>
+        <v>93.83392671696367</v>
       </c>
       <c r="I9" t="n">
-        <v>13.10896012270045</v>
+        <v>23.7963092690661</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346714</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>68.1367878863326</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>77.60907961786812</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413785</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899655</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890293</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>139.0903271400897</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>261.3661834507345</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>753.3240270466276</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>753.3240270466276</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>753.3240270466276</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>753.3240270466276</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>486.9463704794497</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>220.5687139122717</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>1019.701683613806</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>1019.701683613806</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="X2" t="n">
-        <v>1019.701683613806</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y2" t="n">
-        <v>1019.701683613806</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>618.9593752778842</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="C3" t="n">
-        <v>444.5063459967572</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
-        <v>295.5719363355059</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E3" t="n">
-        <v>136.3344813300504</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4407,22 +4407,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>826.7196740428381</v>
+        <v>587.184182860382</v>
       </c>
       <c r="W3" t="n">
-        <v>826.7196740428381</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="X3" t="n">
-        <v>826.7196740428381</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="Y3" t="n">
-        <v>618.9593752778842</v>
+        <v>332.9468261321803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>448.519540580805</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="C4" t="n">
-        <v>448.519540580805</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="D4" t="n">
-        <v>298.4029011684693</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4489,16 +4489,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>703.2040287866919</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>703.2040287866919</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>448.519540580805</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>448.519540580805</v>
+        <v>296.631170629683</v>
       </c>
       <c r="X4" t="n">
-        <v>448.519540580805</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="Y4" t="n">
-        <v>448.519540580805</v>
+        <v>68.64161973166563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388465</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388465</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="D5" t="n">
-        <v>560.7979242836798</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165018</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515901</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.59818340306</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991314</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>686.1106626298174</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388465</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388465</v>
+        <v>307.3840804899465</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317.7312518565088</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>317.7312518565088</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>317.7312518565088</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551308</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>121.6535314649673</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T6" t="n">
-        <v>1014.881015581407</v>
+        <v>840.076354622418</v>
       </c>
       <c r="U6" t="n">
-        <v>1014.881015581407</v>
+        <v>840.076354622418</v>
       </c>
       <c r="V6" t="n">
-        <v>779.7289073496643</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="W6" t="n">
-        <v>525.4915506214627</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="X6" t="n">
-        <v>525.4915506214627</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y6" t="n">
-        <v>317.7312518565088</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.1708304446448</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2346475167379</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="U7" t="n">
-        <v>835.844869548549</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="V7" t="n">
-        <v>581.1603813426622</v>
+        <v>367.9149609686638</v>
       </c>
       <c r="W7" t="n">
-        <v>581.1603813426622</v>
+        <v>367.9149609686638</v>
       </c>
       <c r="X7" t="n">
-        <v>353.1708304446448</v>
+        <v>367.9149609686638</v>
       </c>
       <c r="Y7" t="n">
-        <v>353.1708304446448</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1472.48070227956</v>
+        <v>153.0162055982395</v>
       </c>
       <c r="C8" t="n">
-        <v>1103.518185339149</v>
+        <v>153.0162055982395</v>
       </c>
       <c r="D8" t="n">
-        <v>745.2524867323982</v>
+        <v>153.0162055982395</v>
       </c>
       <c r="E8" t="n">
-        <v>745.2524867323982</v>
+        <v>153.0162055982395</v>
       </c>
       <c r="F8" t="n">
-        <v>334.2665819427907</v>
+        <v>58.37668428735581</v>
       </c>
       <c r="G8" t="n">
-        <v>120.4438610970188</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970188</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181703</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229168</v>
+        <v>166.498936722916</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677506</v>
+        <v>397.0601716677489</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937597</v>
+        <v>719.9935330937567</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.98855772158</v>
+        <v>1110.988557721576</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999425</v>
+        <v>1512.924098999419</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830562</v>
+        <v>1879.125171830554</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271729</v>
+        <v>2157.168314271721</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257589</v>
+        <v>2317.794388257581</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590851</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590851</v>
+        <v>2196.656028259778</v>
       </c>
       <c r="T8" t="n">
-        <v>2116.216769844011</v>
+        <v>1987.052678512938</v>
       </c>
       <c r="U8" t="n">
-        <v>1862.620034255372</v>
+        <v>1987.052678512938</v>
       </c>
       <c r="V8" t="n">
-        <v>1862.620034255372</v>
+        <v>1655.989791169367</v>
       </c>
       <c r="W8" t="n">
-        <v>1862.620034255372</v>
+        <v>1303.221135899253</v>
       </c>
       <c r="X8" t="n">
-        <v>1862.620034255372</v>
+        <v>929.7553776381731</v>
       </c>
       <c r="Y8" t="n">
-        <v>1472.48070227956</v>
+        <v>539.6160456623613</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>920.5052177105385</v>
+        <v>692.4082165547791</v>
       </c>
       <c r="C9" t="n">
-        <v>746.0521884294116</v>
+        <v>517.9551872736521</v>
       </c>
       <c r="D9" t="n">
-        <v>597.1177787681603</v>
+        <v>369.0207776124008</v>
       </c>
       <c r="E9" t="n">
-        <v>437.8803237627048</v>
+        <v>209.7833226069453</v>
       </c>
       <c r="F9" t="n">
-        <v>291.3457657895898</v>
+        <v>209.7833226069453</v>
       </c>
       <c r="G9" t="n">
-        <v>154.5395204116797</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>59.75777625313061</v>
+        <v>70.55307842117655</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181703</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977982</v>
+        <v>223.9894559067841</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412832</v>
+        <v>392.119430328287</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456336982</v>
+        <v>664.5134706207011</v>
       </c>
       <c r="M9" t="n">
-        <v>1094.834687517153</v>
+        <v>1001.741335817365</v>
       </c>
       <c r="N9" t="n">
-        <v>1670.475167115889</v>
+        <v>1362.303264068701</v>
       </c>
       <c r="O9" t="n">
-        <v>1978.099094776777</v>
+        <v>1669.927191729589</v>
       </c>
       <c r="P9" t="n">
-        <v>2205.661351085894</v>
+        <v>1997.684836227395</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.861496570705</v>
+        <v>2307.861496570697</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590851</v>
+        <v>2325.820119590843</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160706</v>
+        <v>2188.151005160697</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661038</v>
+        <v>1993.721818661029</v>
       </c>
       <c r="U9" t="n">
-        <v>1993.721818661038</v>
+        <v>1765.624817505278</v>
       </c>
       <c r="V9" t="n">
-        <v>1758.569710429295</v>
+        <v>1530.472709273535</v>
       </c>
       <c r="W9" t="n">
-        <v>1504.332353701093</v>
+        <v>1276.235352545334</v>
       </c>
       <c r="X9" t="n">
-        <v>1296.48085349556</v>
+        <v>1068.383852339801</v>
       </c>
       <c r="Y9" t="n">
-        <v>1088.720554730607</v>
+        <v>860.6235535748472</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.2635139530163</v>
+        <v>223.8396790864746</v>
       </c>
       <c r="C10" t="n">
-        <v>678.3273310251094</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="D10" t="n">
-        <v>528.2106916127736</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="E10" t="n">
-        <v>380.2975980303805</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="F10" t="n">
-        <v>233.4076505324702</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="G10" t="n">
-        <v>155.0146408174519</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="H10" t="n">
-        <v>155.0146408174519</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181703</v>
+        <v>46.51640239181685</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909583</v>
+        <v>65.89540801909544</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736024</v>
+        <v>227.5779039736017</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632626</v>
+        <v>490.0022680632616</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794065</v>
+        <v>777.081088479405</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620621</v>
+        <v>1062.768432620619</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257118</v>
+        <v>1310.630639257115</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.19889432512</v>
+        <v>1499.198894325117</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718234</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718234</v>
+        <v>1439.783439600086</v>
       </c>
       <c r="S10" t="n">
-        <v>1546.318699718234</v>
+        <v>1439.783439600086</v>
       </c>
       <c r="T10" t="n">
-        <v>1546.318699718234</v>
+        <v>1216.429428829627</v>
       </c>
       <c r="U10" t="n">
-        <v>1546.318699718234</v>
+        <v>927.3062973339089</v>
       </c>
       <c r="V10" t="n">
-        <v>1546.318699718234</v>
+        <v>672.6218091280221</v>
       </c>
       <c r="W10" t="n">
-        <v>1256.901529681273</v>
+        <v>672.6218091280221</v>
       </c>
       <c r="X10" t="n">
-        <v>1028.911978783256</v>
+        <v>444.6322582300047</v>
       </c>
       <c r="Y10" t="n">
-        <v>1028.911978783256</v>
+        <v>223.8396790864746</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>988.1395539230176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1618.570148794805</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,16 +5601,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5890,16 +5890,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,16 +6063,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
         <v>680.0291294438176</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7324,19 +7324,19 @@
         <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>99.37288961069115</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>28.18495819153195</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8538,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>220.124723926051</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>217.2510619670692</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>101.2074628168596</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>238.7086800719751</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>292.9499604418381</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>205.7395998898022</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992787</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.15649395853811</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>24.81829093850962</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1279185.166056921</v>
+        <v>1279185.16605692</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118476.4986260252</v>
+        <v>118476.4986260253</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="E2" t="n">
+        <v>141250.654945751</v>
+      </c>
+      <c r="F2" t="n">
         <v>141250.6549457511</v>
-      </c>
-      <c r="F2" t="n">
-        <v>141250.654945751</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26347,7 +26347,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228513006</v>
+        <v>331437.5228512984</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424093</v>
+        <v>563905.784342411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201266</v>
+        <v>99845.14336201207</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569552</v>
+        <v>147342.6769569557</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165439.1551052514</v>
+        <v>165439.1551052515</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>152658.8108876525</v>
+        <v>152658.8108876531</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744388</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744366</v>
+        <v>8727.256391744299</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744319</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483773</v>
       </c>
       <c r="O4" t="n">
         <v>16718.11565483777</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483778</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543601</v>
+        <v>88290.79546543583</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790098.4402746855</v>
+        <v>-790458.5232904027</v>
       </c>
       <c r="C6" t="n">
         <v>-167014.0605204056</v>
       </c>
       <c r="D6" t="n">
-        <v>-428704.8194781396</v>
+        <v>-428704.8194781378</v>
       </c>
       <c r="E6" t="n">
-        <v>-532504.9156123097</v>
+        <v>-532539.653537747</v>
       </c>
       <c r="F6" t="n">
-        <v>31400.86873009955</v>
+        <v>31366.13080466402</v>
       </c>
       <c r="G6" t="n">
-        <v>31400.86873009965</v>
+        <v>31366.13080466399</v>
       </c>
       <c r="H6" t="n">
-        <v>31400.86873009965</v>
+        <v>31366.13080466405</v>
       </c>
       <c r="I6" t="n">
-        <v>31400.86873009962</v>
+        <v>31366.13080466402</v>
       </c>
       <c r="J6" t="n">
-        <v>-37598.28568901437</v>
+        <v>-37633.02361445005</v>
       </c>
       <c r="K6" t="n">
-        <v>31400.86873009968</v>
+        <v>31366.13080466405</v>
       </c>
       <c r="L6" t="n">
-        <v>-76045.06514451619</v>
+        <v>-76045.06514451563</v>
       </c>
       <c r="M6" t="n">
-        <v>-123542.5987394587</v>
+        <v>-123542.5987394592</v>
       </c>
       <c r="N6" t="n">
         <v>23800.0782174965</v>
@@ -26561,7 +26561,7 @@
         <v>23800.07821749648</v>
       </c>
       <c r="P6" t="n">
-        <v>23800.07821749646</v>
+        <v>23800.07821749643</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896819</v>
+        <v>885.8132865896803</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977128</v>
+        <v>581.4550298977107</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202036</v>
+        <v>271.7582728202019</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519921</v>
+        <v>482.1622137519935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962068</v>
+        <v>317.7411498962044</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019358</v>
+        <v>591.2532582019377</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962068</v>
+        <v>317.7411498962044</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019358</v>
+        <v>591.2532582019377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962068</v>
+        <v>317.7411498962044</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019358</v>
+        <v>591.2532582019377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>174.1254945737349</v>
       </c>
       <c r="H2" t="n">
-        <v>232.0233646991354</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>30.98421517275325</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>129.9494113275923</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>99.36489840833949</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>2.583972456090436</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D5" t="n">
-        <v>129.2799018570679</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>139.9227315613165</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>155.2662282045056</v>
+        <v>147.5120742225823</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>69.43808654977647</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>55.06696147117427</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>313.1829196439365</v>
       </c>
       <c r="G8" t="n">
-        <v>200.0571854392695</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411815002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177534</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>91.43416789718356</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.68734914636554</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>99.11003321229524</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>88.78453151887153</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.0251168634279</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169635</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627544</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,22 +28087,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,13 +28147,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>7.887619145523535e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09361997531194e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.440674018558034e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,16 +31045,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31063,25 +31063,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31224,19 +31224,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551482</v>
+        <v>3.561058438551476</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381538</v>
+        <v>36.46968973381531</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522561</v>
+        <v>137.2877054522559</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490091</v>
+        <v>302.2403836490086</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528935</v>
+        <v>452.9799873528926</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417135</v>
+        <v>561.9617295417125</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483034</v>
+        <v>625.2907025483023</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368379</v>
+        <v>635.4085598368367</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884915</v>
+        <v>599.9982849884905</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867517</v>
+        <v>512.0846547867508</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561266</v>
+        <v>384.5542494561259</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406597</v>
+        <v>223.6923371406593</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849199</v>
+        <v>81.14761916849183</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475912</v>
+        <v>15.58853331475909</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841185</v>
+        <v>0.284884675084118</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079693</v>
+        <v>1.90533423907969</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953283</v>
+        <v>18.4015175195328</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234909</v>
+        <v>65.60032358234898</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474372</v>
+        <v>180.0123019474368</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657766</v>
+        <v>307.669695965776</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247378</v>
+        <v>413.699875024737</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913765</v>
+        <v>482.7682411913757</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139769</v>
+        <v>495.545680013976</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059478</v>
+        <v>453.327484505947</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730337</v>
+        <v>363.835272373033</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726991</v>
+        <v>243.2142442726987</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053164</v>
+        <v>118.2978574053162</v>
       </c>
       <c r="S9" t="n">
-        <v>35.3907478179934</v>
+        <v>35.39074781799334</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150164</v>
+        <v>7.67983406015015</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815588</v>
+        <v>0.1253509367815586</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719098</v>
+        <v>1.597368221719095</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401163</v>
+        <v>14.2020556440116</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587981</v>
+        <v>48.03721888587972</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755402</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051825</v>
+        <v>185.5851443051821</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817649</v>
+        <v>237.4850899817645</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191128</v>
+        <v>250.3947295191124</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108873</v>
+        <v>244.4409025108868</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753504</v>
+        <v>225.78073737535</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522807</v>
+        <v>193.1944256522803</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.757806275042</v>
+        <v>133.7578062750417</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020598</v>
+        <v>71.82348386020585</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577737</v>
+        <v>27.83777164577732</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527055</v>
+        <v>6.825118765527042</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013274</v>
+        <v>0.08712917573013258</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33023,25 +33023,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26.13373767211372</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250131</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223228</v>
+        <v>121.1944791223223</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079129</v>
+        <v>232.8901363079121</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717262</v>
+        <v>326.1953145717253</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210307</v>
+        <v>394.9444693210296</v>
       </c>
       <c r="N8" t="n">
-        <v>405.995496240247</v>
+        <v>405.9954962402458</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668047</v>
+        <v>369.9000735668037</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314821</v>
+        <v>280.8516590314812</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816771</v>
+        <v>162.2485595816765</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527607</v>
+        <v>8.106799326527209</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077049</v>
+        <v>179.265710621179</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914176</v>
+        <v>169.828256991417</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448636</v>
+        <v>275.1454952448628</v>
       </c>
       <c r="M9" t="n">
-        <v>560.7589311954092</v>
+        <v>340.6342072693574</v>
       </c>
       <c r="N9" t="n">
-        <v>581.4550298977128</v>
+        <v>364.2039679306426</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615034</v>
+        <v>310.7312400615026</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587035</v>
+        <v>331.0683277755624</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866776</v>
+        <v>313.3097579225263</v>
       </c>
       <c r="R9" t="n">
-        <v>18.1400232526733</v>
+        <v>18.14002325267309</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886747</v>
+        <v>19.57475315886727</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792996</v>
+        <v>163.3156524792993</v>
       </c>
       <c r="L10" t="n">
-        <v>265.075115242081</v>
+        <v>265.0751152420806</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809534</v>
+        <v>289.978606480953</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901159</v>
+        <v>288.5730748901154</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893901</v>
+        <v>250.3658652893897</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171742</v>
+        <v>190.4729849171738</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334757</v>
+        <v>47.59576302334735</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36671,25 +36671,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
